--- a/URS/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF728C4-995C-4963-B4CC-759D0070A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="提出檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -102,9 +101,6 @@
     <t>撥款方式</t>
   </si>
   <si>
-    <t>狀態</t>
-  </si>
-  <si>
     <t>匯款銀行</t>
   </si>
   <si>
@@ -198,10 +194,6 @@
   <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>findL4001A</t>
@@ -228,10 +220,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RemitAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -240,207 +228,263 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawdownCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmlRsp</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML回應碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC, FacmNo ASC, BormNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND DrawdownCode &gt;= ,AND DrawdownCode &lt;= ,AND StatusCode &gt;= ,AND StatusCode &lt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4901C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND DrawdownCode &gt;= ,AND DrawdownCode &lt;= ,AND StatusCode &gt;= ,AND StatusCode &lt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishColName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseColName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posision</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSeq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctNo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>UnitCode</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>解付單位代號</t>
+  </si>
+  <si>
+    <t>RemitName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>代償專戶</t>
+  </si>
+  <si>
+    <t>ColumnA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光人壽保險股份有限公司─放款服務課</t>
+  </si>
+  <si>
+    <t>ColumnB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>00174</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemitDate</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款日期</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>批號</t>
+  </si>
+  <si>
     <t>findL4901B</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawdownCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmlRsp</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AML回應碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,BatchNo,TitaTlrNo,TitaTxtNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC, FacmNo ASC, BormNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND BatchNo = ,AND DrawdownCode &gt;= ,AND DrawdownCode &lt;= ,AND StatusCode &gt;= ,AND StatusCode &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4901C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND DrawdownCode &gt;= ,AND DrawdownCode &lt;= ,AND StatusCode &gt;= ,AND StatusCode &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishColName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChineseColName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Posision</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataSeq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctNo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額</t>
-  </si>
-  <si>
-    <t>UnitCode</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>解付單位代號</t>
-  </si>
-  <si>
-    <t>RemitName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>代償專戶</t>
-  </si>
-  <si>
-    <t>ColumnA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新光人壽保險股份有限公司─放款服務課</t>
-  </si>
-  <si>
-    <t>ColumnB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>space</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnC</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>00174</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemitDate</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>匯款日期</t>
+    <t>狀態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:AmlCheckItem
+0.非可疑名單/已完成名單確認
+1.需審查/確認
+2.為凍結名單/未確定名單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1STEP TX -&gt; 0    (from eloan)
+2STEP TX -&gt; 1 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemitAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyContent</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>批號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason 格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易進行記號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>產檔後修正後內容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActFg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:DrawdownStatus
+0:正常
+1:產檔後修正
+2:產檔後訂正
+3.未放行(ActFg=1時顯示用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:DrawdownCode2
@@ -452,24 +496,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:DrawdownStatus
-0:正常
-1:產檔後修正
-2:產檔後訂正</t>
+    <t>"LN + 傳票批號 + 匯款批號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -674,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +808,12 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -785,15 +825,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,23 +921,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -936,23 +956,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1128,11 +1131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1147,12 +1150,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
@@ -1162,10 +1165,10 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
@@ -1174,13 +1177,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1190,10 +1193,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
@@ -1201,12 +1204,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1214,10 +1217,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -1225,10 +1228,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1263,13 +1266,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="20">
         <v>8</v>
@@ -1281,31 +1284,32 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="18"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" s="18">
         <v>8</v>
@@ -1318,60 +1322,62 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="34" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="97.2">
       <c r="A13" s="18">
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="18">
         <v>2</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="64.8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="81">
       <c r="A14" s="18">
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="23" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1379,13 +1385,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="18">
         <v>3</v>
@@ -1397,157 +1403,157 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18">
         <v>4</v>
       </c>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="18">
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="18">
         <v>14</v>
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="18">
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="18">
         <v>7</v>
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="18">
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="18">
         <v>3</v>
       </c>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="18">
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="18">
         <v>3</v>
       </c>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="18">
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="18">
         <v>100</v>
       </c>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="18">
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="18">
         <v>100</v>
       </c>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="18">
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="18">
         <v>3</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="18">
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="18">
         <v>16</v>
@@ -1556,98 +1562,141 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="64.8">
+    <row r="25" spans="1:8" ht="64.8">
       <c r="A25" s="18">
         <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.4">
       <c r="A26" s="18">
         <v>18</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B26" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="18">
         <v>19</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="20">
-        <v>6</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B27" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="18">
+        <v>500</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="18">
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="22"/>
       <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="18">
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E29" s="20">
         <v>6</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="18">
+        <v>22</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="18">
+        <v>23</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="20">
+        <v>6</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1666,18 +1715,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="101.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1695,40 +1744,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF0E591-6FB7-437F-B956-10B21F2F3CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1760,28 +1809,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1789,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31">
@@ -1811,13 +1860,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E3" s="31">
         <v>14</v>
@@ -1837,13 +1886,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="31">
         <v>13</v>
@@ -1863,13 +1912,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E5" s="31">
         <v>7</v>
@@ -1889,13 +1938,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E6" s="30">
         <v>59</v>
@@ -1915,13 +1964,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E7" s="31">
         <v>35</v>
@@ -1941,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E8" s="31">
         <v>59</v>
@@ -1967,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E9" s="31">
         <v>5</v>
@@ -1993,13 +2042,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="31">
         <v>8</v>
@@ -2019,13 +2068,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="31">
         <v>2</v>
@@ -2043,5 +2092,6 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/URS/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659EA743-AD11-4B1B-84EF-5DE1E2B179CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="提出檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -503,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -829,8 +839,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,6 +931,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -956,6 +983,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,11 +1175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1293,7 +1337,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="22"/>
@@ -1715,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1788,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
